--- a/요구사항정의서_v0.2535.xlsx
+++ b/요구사항정의서_v0.2535.xlsx
@@ -15,775 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="256">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
-    <x:t>관리자 이름 , 관리자 이메일, 관리자 아이디를 입력하면 비밀번호 전체길이의 절반 나머지 ****로 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동일 직무분야 및 등급의 과목을 수료하면 그 시험을 어떤기간동안 응시하지않아도 되는 시험에 대한 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>국가기관,공공기관,기업체에서 관련업무로 필요한 경우 문서로 요청할때의 다수 인원의 진위여부를 확인해준다,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자의 아이디는 특정 ID로 한정 짓는다.
-총괄 관리자 아이디는 manager로 한정 짓는다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증 발급 신청 내역을 조회 할 수 있는 페이지를 만들어 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알파넷에서 응시할 수 있는 시험응시과목에 대한 조회를 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원의 정보중 부정한 부분이 있으면 회원정보를 삭제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디,비밀번호는 숫자와 영문 특수문자를 섞은 8~13자 조합이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 이름, 관리자 이메일을 입력하면 해당 아이디가 이메일로 전송</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회차별로 정리 된 문제를 보여주며 회원이 풀고 채점을 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자가 등록한 합격자의 수험번호를 pdf파일을 이용하여 보여준다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증을 어떻게 발급받을지에대한 정보를 조회 , 신청할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름과 문서확인번호를 입력해 문서의 진위여부를 확인 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험접수일정 ,시험일정, 제출서류, 시험비용, 준비물 등등의 정보를 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시한 시험의 결과가 합격인지/불합격인지 확인 할 수 있고 , 오답체크가 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취득자격증의 자격증발급 , 확인서 발급이 필요할 경우 취득한 자격증을 조회한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디는 특정ID ,비밀번호는 숫자와 영문 특수문자를 섞은 8~13자 조합이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름과 생년월일 자격증번호등을 입력해 자격증의 진위여부를 확인 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시할 시험과목을 선택하여 필요한 서류가 무엇이 있는지 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력정보입력/경력정보입력/기능경기대회수상경력입력을 카테고리로 학력과 경력을 수정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수험표 번호 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017.06.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_NM_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_NM_03</x:t>
+    <x:t>2017.04.07</x:t>
   </x:si>
   <x:si>
     <x:t>2017.6.27</x:t>
   </x:si>
   <x:si>
-    <x:t>alpha_NM_02</x:t>
+    <x:t>내 용</x:t>
   </x:si>
   <x:si>
-    <x:t>필기/실기시험안내</x:t>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>시험자격요건지정</x:t>
+    <x:t>승인자</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">요구사항 상세내역 </x:t>
+    <x:t>정현정</x:t>
   </x:si>
   <x:si>
-    <x:t>회원정보 휴먼계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">로그인 정보 찾기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 아이디 찾기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">회원정보 업데이트 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017.04.07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격자/답안발표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격취득/미발급 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디,비밀번호 조합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수험표의 양식형태지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신발 매장관리 시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>민원신청(고객의소리)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출제 기준을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기출문제를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각종 서식을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디/비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증 미발급 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증 취득 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진변경신청/결과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증/확인서발급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서 진위학인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증발급신청조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시자격자가진단</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실기시험 과목 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시자격제출서류확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능경기확인서 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시가능종목확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원서 접수 현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서 발급내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필기시험 과목 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증/확인서 발급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환불</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> </x:t>
-  </x:si>
-  <x:si>
-    <x:t>CBT</x:t>
+    <x:t>작성자</x:t>
   </x:si>
   <x:si>
     <x:t>문서명</x:t>
   </x:si>
   <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정현정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
     <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증 미발급을 조회 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험별로 자격요건을 정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인의 정보를 수정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기출문제은행를 풀어볼 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">로그인된 상태에서만 신청가능 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장소변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시자격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단체진위확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격검정통계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증취득조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원서접수신청/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장소선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>접수권한제한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 외 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서류제출확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청권한제한</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">로그인 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증/확인서</x:t>
   </x:si>
   <x:si>
     <x:t>2번째 제정</x:t>
   </x:si>
   <x:si>
-    <x:t>문서개정이력표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목면제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 정보</x:t>
+    <x:t>최초 제정</x:t>
   </x:si>
   <x:si>
     <x:t>요구사항정의서</x:t>
   </x:si>
   <x:si>
-    <x:t>회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급조회현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
+    <x:t>문서개정이력표</x:t>
   </x:si>
   <x:si>
     <x:t>프로젝트관리자</x:t>
   </x:si>
   <x:si>
-    <x:t>요구사항ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험면제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최초 제정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험일정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서발급신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">비회원 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>수험표 양식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험종목안내</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서발부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험결과보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정기시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증발급신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객의 소리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험종목선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증발급내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>면제정보보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원서접수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원서접수내역</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학력/경력수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문자격 시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증진위확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Q&amp;A게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문자격시험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_login_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_A_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_give_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_A_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_view_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_find_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_A_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_A_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_join_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_CBT_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_exam_M_09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서/자격증 진위확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시자격서류 온라인제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원을 탈퇴할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서발급 신청내역조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애 유형별 편의 제공 안내</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 양식을 제공한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 로그인 시간 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필기시험 과목 추가/수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원서 접수 안내 등록/수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증/확인서 진위확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실기시험 과목 추가/수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기출문제를 다운받을 수 있다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문자격 시험 과목 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신이 자격증을 신청해 발급받은 자격증내역을 조회 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 후 일정 시간이 지나면 자동 로그아웃 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서 진위를 확인 할 수 있는 페이지를 만들어 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증 진위를 확인 할 수 있는 페이지를 만들어 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>년도마다  필기·실기 응시자 및 합격자 추이를 확인할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>접수중인 시험을 신청할 수 있는 접수신청페이지로 넘어간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응시자격 제출서류를 제출했는지에 대한 조회를 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필기/실기시험을 토대로 합격자를 pdf파일를 이용해 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원명,이메일을 입력하면 해당 아이디의 앞에 4자리만 보여준다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일, 주소 핸드폰번호 등 정규화를 통해 설정.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일로 인증한 후 민원신청을 할 수 있게한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실기시험의 경우 서류제출 확인(필기합격자만)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 조건 만족시 면제과목을 지정 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서 발급 안내를 등록/수정 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증 발급 안내를 등록/수정 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수험표 양식을 언제든지 바꿀 수 있도록 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기출문제를 등록/ 수정/ 삭제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각종 서식을 등록/ 수정/ 삭제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출제 기준을 등록/ 수정/ 삭제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항을 등록/ 수정/ 삭제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발급받지 않은 자격증을 조회할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험을 볼 수 있는 자격들을 확인 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취득한 자격증의 종류를 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인서발급에 대한 정보를 조회 , 신청할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>list를 이용하여 시험종목 10가지를 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증에 들어갈 사진의 변경을 위해 신청 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신이 확인서를 신청해 발급한 내역을 조회 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>온라인을 통해 응시자격제출 서류를 제출할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자가 등록한 답안지를 pdf파일을 이용하여 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능경기대회 입상 확인서 발급내역 및 인쇄할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 아이디를 입력하면 초기화된 비밀번호를 이메일로 전송</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원이 남긴 질문에 특정 ID만이 답글을 남길 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원의 학력, 전공, 자격요건 등을 조회 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자주 묻는 질문을 등록/ 수정/ 삭제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신청한 확인서의 내역을 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행중인 접수내역/ 지난 접수내역/취소 환불내역을 카테고리로 원서를 접수한 history를 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>김재현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문자격 시험 과목 등록/수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_login_A_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_login_A_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_member_A_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_member_A_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_mypage_M_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_mypage_M_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_logout_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_login_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_login_A_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_paper_A_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_board_A_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_board_A_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_paper_A_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_paper_A_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_login_A_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_mypage_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_mypage_M_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_member_A_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_board_A_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_mypage_M_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alpha_vaild_M_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증 발급 신청한 내역을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기출문제은행을 직접 운영 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중요 공지사항은 특정 표시로 구분 짓는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>각 과목별 랜덤 문제를 출제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비정상 적인 질문은 삭제 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">자격요건에 부합하지 않으면 신청 불가능 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>시&gt;구 해당  시험장소 선택 (지도)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2029,7 +1305,7 @@
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="직사각형 0"/>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2132,56 +1408,17 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvPr id="3" name="그룹 2"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="0">
           <a:off x="0" y="0"/>
           <a:ext cx="914400" cy="914400"/>
-          <a:chOff x="-1704" y="-149"/>
-          <a:chExt cx="673" cy="227"/>
+          <a:chOff x="-1704" y="-130"/>
+          <a:chExt cx="673" cy="208"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp fLocksText="1" fPublished="0">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직선 연결선 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="-1704" y="-149"/>
-            <a:ext cx="673" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:srgbClr val="c0c0c0"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="20000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
       <xdr:sp fLocksText="1" fPublished="0">
         <xdr:nvSpPr>
           <xdr:cNvPr id="4" name="직선 연결선 3"/>
@@ -2189,7 +1426,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1704" y="-9"/>
+            <a:off x="-1704" y="-130"/>
             <a:ext cx="673" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -2224,6 +1461,45 @@
       <xdr:sp fLocksText="1" fPublished="0">
         <xdr:nvSpPr>
           <xdr:cNvPr id="5" name="직선 연결선 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1704" y="-1"/>
+            <a:ext cx="673" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="c0c0c0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="20000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp fLocksText="1" fPublished="0">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="직선 연결선 5"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2278,7 +1554,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="그룹 5"/>
+        <xdr:cNvPr id="7" name="그룹 6"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2291,7 +1567,7 @@
       </xdr:grpSpPr>
       <xdr:pic macro="" fPublished="0">
         <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="그림 6"/>
+          <xdr:cNvPr id="8" name="그림 7"/>
           <xdr:cNvPicPr/>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
@@ -2319,67 +1595,28 @@
       </xdr:pic>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="그룹 7"/>
+          <xdr:cNvPr id="9" name="그룹 8"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm rot="0">
-            <a:off x="-1603" y="280"/>
-            <a:ext cx="639" cy="82"/>
-            <a:chOff x="-1708" y="-221"/>
+            <a:off x="-1601" y="279"/>
+            <a:ext cx="639" cy="83"/>
+            <a:chOff x="-1708" y="-202"/>
             <a:chExt cx="0" cy="0"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="직사각형 8"/>
+            <xdr:cNvPr id="10" name="직사각형 9"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:sp>
-        <xdr:sp fLocksText="1" fPublished="0">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="직선 연결선 9"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="-1708" y="-221"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
@@ -2415,7 +1652,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -2454,7 +1691,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -2488,12 +1725,51 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="직사각형 12"/>
+            <xdr:cNvPr id="13" name="직선 연결선 12"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="20000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:sp>
+        <xdr:sp fLocksText="1" fPublished="0">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="직사각형 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2541,12 +1817,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="직사각형 13"/>
+            <xdr:cNvPr id="15" name="직사각형 14"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2594,12 +1870,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="직사각형 14"/>
+            <xdr:cNvPr id="16" name="직사각형 15"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2647,12 +1923,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="직사각형 15"/>
+            <xdr:cNvPr id="17" name="직사각형 16"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2700,12 +1976,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="직사각형 16"/>
+            <xdr:cNvPr id="18" name="직사각형 17"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2753,12 +2029,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="직사각형 17"/>
+            <xdr:cNvPr id="19" name="직사각형 18"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="-1708" y="-221"/>
+              <a:off x="-1708" y="-202"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2807,12 +2083,12 @@
       </xdr:grpSp>
       <xdr:sp fLocksText="1" fPublished="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="직사각형 18"/>
+          <xdr:cNvPr id="20" name="직사각형 19"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-543" y="390"/>
+            <a:off x="-541" y="391"/>
             <a:ext cx="859" cy="19"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3249,7 +2525,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="38.25" customHeight="1">
       <x:c r="A1" s="55" t="s">
-        <x:v>110</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B1" s="56"/>
       <x:c r="C1" s="56"/>
@@ -3259,11 +2535,11 @@
     </x:row>
     <x:row r="2" spans="1:6" ht="27" customHeight="1">
       <x:c r="A2" s="58" t="s">
-        <x:v>66</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="59"/>
       <x:c r="C2" s="52" t="s">
-        <x:v>114</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="53"/>
       <x:c r="E2" s="53"/>
@@ -3271,20 +2547,20 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>79</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="29.25" customHeight="1">
@@ -3292,17 +2568,17 @@
         <x:v>0.10000000000000001</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="60" t="s">
-        <x:v>126</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="61"/>
       <x:c r="E4" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F4" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="29.25" customHeight="1">
@@ -3310,14 +2586,14 @@
         <x:v>0.20000000000000001</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C5" s="60" t="s">
-        <x:v>109</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D5" s="61"/>
       <x:c r="E5" s="7" t="s">
-        <x:v>224</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="7"/>
     </x:row>
@@ -3533,7 +2809,7 @@
   <x:dimension ref="A1:I117"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="I17" activeCellId="0" sqref="I17:I17"/>
+      <x:selection activeCell="I17" activeCellId="0" sqref="A1:I102"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.4"/>
@@ -3549,9 +2825,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:9" ht="20.65">
-      <x:c r="B1" s="74" t="s">
-        <x:v>114</x:v>
-      </x:c>
+      <x:c r="B1" s="74"/>
       <x:c r="C1" s="74"/>
       <x:c r="D1" s="22"/>
       <x:c r="F1" s="22"/>
@@ -3560,53 +2834,27 @@
       <x:c r="I1" s="24"/>
     </x:row>
     <x:row r="2" spans="2:9">
-      <x:c r="B2" s="73" t="s">
-        <x:v>122</x:v>
-      </x:c>
+      <x:c r="B2" s="73"/>
       <x:c r="C2" s="73"/>
       <x:c r="D2" s="30"/>
       <x:c r="E2" s="72"/>
-      <x:c r="F2" s="72" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G2" s="13" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="H2" s="75" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="F2" s="72"/>
+      <x:c r="G2" s="13"/>
+      <x:c r="H2" s="75"/>
       <x:c r="I2" s="75"/>
     </x:row>
     <x:row r="3" spans="2:9">
-      <x:c r="B3" s="13" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C3" s="13" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D3" s="30" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="E3" s="13" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F3" s="13" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G3" s="13" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H3" s="25" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I3" s="25" t="s">
-        <x:v>77</x:v>
-      </x:c>
+      <x:c r="B3" s="13"/>
+      <x:c r="C3" s="13"/>
+      <x:c r="D3" s="30"/>
+      <x:c r="E3" s="13"/>
+      <x:c r="F3" s="13"/>
+      <x:c r="G3" s="13"/>
+      <x:c r="H3" s="25"/>
+      <x:c r="I3" s="25"/>
     </x:row>
     <x:row r="4" spans="2:9" ht="31.5" customHeight="1">
-      <x:c r="B4" s="84" t="s">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="B4" s="84"/>
       <x:c r="C4" s="84"/>
       <x:c r="D4" s="84"/>
       <x:c r="E4" s="84"/>
@@ -3616,289 +2864,135 @@
       <x:c r="I4" s="84"/>
     </x:row>
     <x:row r="5" spans="1:9" s="21" customFormat="1">
-      <x:c r="A5" s="77" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B5" s="68" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C5" s="34" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D5" s="31" t="s">
-        <x:v>241</x:v>
-      </x:c>
-      <x:c r="E5" s="35" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F5" s="42" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G5" s="35" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H5" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I5" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9" ht="29.9">
+      <x:c r="A5" s="77"/>
+      <x:c r="B5" s="68"/>
+      <x:c r="C5" s="34"/>
+      <x:c r="D5" s="31"/>
+      <x:c r="E5" s="35"/>
+      <x:c r="F5" s="42"/>
+      <x:c r="G5" s="35"/>
+      <x:c r="H5" s="35"/>
+      <x:c r="I5" s="35"/>
+    </x:row>
+    <x:row r="6" spans="1:9">
       <x:c r="A6" s="77"/>
       <x:c r="B6" s="68"/>
-      <x:c r="C6" s="81" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D6" s="79" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="E6" s="35" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="F6" s="39" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="C6" s="81"/>
+      <x:c r="D6" s="79"/>
+      <x:c r="E6" s="35"/>
+      <x:c r="F6" s="39"/>
       <x:c r="G6" s="36"/>
-      <x:c r="H6" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I6" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H6" s="35"/>
+      <x:c r="I6" s="35"/>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="77"/>
       <x:c r="B7" s="68"/>
       <x:c r="C7" s="81"/>
-      <x:c r="D7" s="80" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="E7" s="37" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F7" s="39" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G7" s="36" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H7" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I7" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D7" s="80"/>
+      <x:c r="E7" s="37"/>
+      <x:c r="F7" s="39"/>
+      <x:c r="G7" s="36"/>
+      <x:c r="H7" s="35"/>
+      <x:c r="I7" s="35"/>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="77"/>
       <x:c r="B8" s="68"/>
-      <x:c r="C8" s="68" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D8" s="79" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="E8" s="37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F8" s="39" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G8" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H8" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I8" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C8" s="68"/>
+      <x:c r="D8" s="79"/>
+      <x:c r="E8" s="37"/>
+      <x:c r="F8" s="39"/>
+      <x:c r="G8" s="37"/>
+      <x:c r="H8" s="35"/>
+      <x:c r="I8" s="35"/>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="77"/>
       <x:c r="B9" s="68"/>
       <x:c r="C9" s="68"/>
       <x:c r="D9" s="82"/>
-      <x:c r="E9" s="37" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="F9" s="39" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G9" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H9" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I9" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E9" s="37"/>
+      <x:c r="F9" s="39"/>
+      <x:c r="G9" s="37"/>
+      <x:c r="H9" s="35"/>
+      <x:c r="I9" s="35"/>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="77"/>
       <x:c r="B10" s="35"/>
-      <x:c r="C10" s="35" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D10" s="31" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="E10" s="37" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="F10" s="39" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="G10" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H10" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I10" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C10" s="35"/>
+      <x:c r="D10" s="31"/>
+      <x:c r="E10" s="37"/>
+      <x:c r="F10" s="39"/>
+      <x:c r="G10" s="37"/>
+      <x:c r="H10" s="35"/>
+      <x:c r="I10" s="35"/>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="77"/>
-      <x:c r="B11" s="68" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="C11" s="68" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D11" s="82" t="s">
-        <x:v>244</x:v>
-      </x:c>
-      <x:c r="E11" s="37" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="F11" s="39" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="G11" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H11" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I11" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="B11" s="68"/>
+      <x:c r="C11" s="68"/>
+      <x:c r="D11" s="82"/>
+      <x:c r="E11" s="37"/>
+      <x:c r="F11" s="39"/>
+      <x:c r="G11" s="37"/>
+      <x:c r="H11" s="35"/>
+      <x:c r="I11" s="35"/>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="77"/>
       <x:c r="B12" s="68"/>
       <x:c r="C12" s="68"/>
       <x:c r="D12" s="82"/>
-      <x:c r="E12" s="35" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="F12" s="39" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G12" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H12" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I12" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E12" s="35"/>
+      <x:c r="F12" s="39"/>
+      <x:c r="G12" s="37"/>
+      <x:c r="H12" s="35"/>
+      <x:c r="I12" s="35"/>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="77"/>
       <x:c r="B13" s="68"/>
       <x:c r="C13" s="68"/>
       <x:c r="D13" s="82"/>
-      <x:c r="E13" s="35" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F13" s="39" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G13" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H13" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I13" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E13" s="35"/>
+      <x:c r="F13" s="39"/>
+      <x:c r="G13" s="37"/>
+      <x:c r="H13" s="35"/>
+      <x:c r="I13" s="35"/>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="77"/>
       <x:c r="B14" s="68"/>
       <x:c r="C14" s="68"/>
-      <x:c r="D14" s="32" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="E14" s="35" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F14" s="39" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="G14" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H14" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I14" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D14" s="32"/>
+      <x:c r="E14" s="35"/>
+      <x:c r="F14" s="39"/>
+      <x:c r="G14" s="37"/>
+      <x:c r="H14" s="35"/>
+      <x:c r="I14" s="35"/>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="77"/>
       <x:c r="B15" s="68"/>
       <x:c r="C15" s="68"/>
-      <x:c r="D15" s="32" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="E15" s="35" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="F15" s="39" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="G15" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H15" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I15" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D15" s="32"/>
+      <x:c r="E15" s="35"/>
+      <x:c r="F15" s="39"/>
+      <x:c r="G15" s="37"/>
+      <x:c r="H15" s="35"/>
+      <x:c r="I15" s="35"/>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="77"/>
-      <x:c r="B16" s="68" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C16" s="68" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D16" s="83" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="E16" s="68" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="F16" s="39" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="G16" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H16" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="B16" s="68"/>
+      <x:c r="C16" s="68"/>
+      <x:c r="D16" s="83"/>
+      <x:c r="E16" s="68"/>
+      <x:c r="F16" s="39"/>
+      <x:c r="G16" s="37"/>
+      <x:c r="H16" s="35"/>
       <x:c r="I16" s="35"/>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -3907,39 +3001,21 @@
       <x:c r="C17" s="68"/>
       <x:c r="D17" s="83"/>
       <x:c r="E17" s="68"/>
-      <x:c r="F17" s="39" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="G17" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H17" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I17" s="35" t="s">
-        <x:v>255</x:v>
-      </x:c>
+      <x:c r="F17" s="39"/>
+      <x:c r="G17" s="37"/>
+      <x:c r="H17" s="35"/>
+      <x:c r="I17" s="35"/>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="77"/>
       <x:c r="B18" s="68"/>
       <x:c r="C18" s="68"/>
       <x:c r="D18" s="83"/>
-      <x:c r="E18" s="68" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F18" s="39" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G18" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H18" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I18" s="35" t="s">
-        <x:v>255</x:v>
-      </x:c>
+      <x:c r="E18" s="68"/>
+      <x:c r="F18" s="39"/>
+      <x:c r="G18" s="37"/>
+      <x:c r="H18" s="35"/>
+      <x:c r="I18" s="35"/>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="77"/>
@@ -3947,36 +3023,20 @@
       <x:c r="C19" s="68"/>
       <x:c r="D19" s="83"/>
       <x:c r="E19" s="68"/>
-      <x:c r="F19" s="39" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G19" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H19" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F19" s="39"/>
+      <x:c r="G19" s="37"/>
+      <x:c r="H19" s="35"/>
       <x:c r="I19" s="35"/>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="77"/>
       <x:c r="B20" s="68"/>
       <x:c r="C20" s="68"/>
-      <x:c r="D20" s="70" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="E20" s="68" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="F20" s="39" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="G20" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H20" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D20" s="70"/>
+      <x:c r="E20" s="68"/>
+      <x:c r="F20" s="39"/>
+      <x:c r="G20" s="37"/>
+      <x:c r="H20" s="35"/>
       <x:c r="I20" s="35"/>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -3985,15 +3045,9 @@
       <x:c r="C21" s="68"/>
       <x:c r="D21" s="70"/>
       <x:c r="E21" s="68"/>
-      <x:c r="F21" s="39" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G21" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H21" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F21" s="39"/>
+      <x:c r="G21" s="37"/>
+      <x:c r="H21" s="35"/>
       <x:c r="I21" s="35"/>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -4002,32 +3056,20 @@
       <x:c r="C22" s="68"/>
       <x:c r="D22" s="70"/>
       <x:c r="E22" s="68"/>
-      <x:c r="F22" s="39" t="s">
-        <x:v>179</x:v>
-      </x:c>
+      <x:c r="F22" s="39"/>
       <x:c r="G22" s="37"/>
-      <x:c r="H22" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H22" s="35"/>
       <x:c r="I22" s="35"/>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="77"/>
       <x:c r="B23" s="68"/>
       <x:c r="C23" s="68"/>
-      <x:c r="D23" s="70" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="E23" s="68" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="F23" s="39" t="s">
-        <x:v>86</x:v>
-      </x:c>
+      <x:c r="D23" s="70"/>
+      <x:c r="E23" s="68"/>
+      <x:c r="F23" s="39"/>
       <x:c r="G23" s="37"/>
-      <x:c r="H23" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H23" s="35"/>
       <x:c r="I23" s="35"/>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -4036,39 +3078,21 @@
       <x:c r="C24" s="68"/>
       <x:c r="D24" s="70"/>
       <x:c r="E24" s="68"/>
-      <x:c r="F24" s="39" t="s">
-        <x:v>200</x:v>
-      </x:c>
+      <x:c r="F24" s="39"/>
       <x:c r="G24" s="37"/>
-      <x:c r="H24" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H24" s="35"/>
       <x:c r="I24" s="35"/>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="77"/>
       <x:c r="B25" s="68"/>
-      <x:c r="C25" s="68" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="D25" s="70" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="E25" s="68" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="F25" s="39" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="G25" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H25" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I25" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C25" s="68"/>
+      <x:c r="D25" s="70"/>
+      <x:c r="E25" s="68"/>
+      <x:c r="F25" s="39"/>
+      <x:c r="G25" s="37"/>
+      <x:c r="H25" s="35"/>
+      <x:c r="I25" s="35"/>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="77"/>
@@ -4076,45 +3100,21 @@
       <x:c r="C26" s="68"/>
       <x:c r="D26" s="70"/>
       <x:c r="E26" s="68"/>
-      <x:c r="F26" s="39" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="G26" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H26" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I26" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F26" s="39"/>
+      <x:c r="G26" s="37"/>
+      <x:c r="H26" s="35"/>
+      <x:c r="I26" s="35"/>
     </x:row>
     <x:row r="27" spans="1:9" ht="17.25" customHeight="1">
       <x:c r="A27" s="77"/>
-      <x:c r="B27" s="65" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C27" s="62" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D27" s="69" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="E27" s="68" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F27" s="39" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="G27" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H27" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I27" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="B27" s="65"/>
+      <x:c r="C27" s="62"/>
+      <x:c r="D27" s="69"/>
+      <x:c r="E27" s="68"/>
+      <x:c r="F27" s="39"/>
+      <x:c r="G27" s="37"/>
+      <x:c r="H27" s="35"/>
+      <x:c r="I27" s="35"/>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="77"/>
@@ -4122,18 +3122,10 @@
       <x:c r="C28" s="62"/>
       <x:c r="D28" s="69"/>
       <x:c r="E28" s="68"/>
-      <x:c r="F28" s="39" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G28" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H28" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I28" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F28" s="39"/>
+      <x:c r="G28" s="37"/>
+      <x:c r="H28" s="35"/>
+      <x:c r="I28" s="35"/>
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="77"/>
@@ -4141,18 +3133,10 @@
       <x:c r="C29" s="62"/>
       <x:c r="D29" s="69"/>
       <x:c r="E29" s="68"/>
-      <x:c r="F29" s="37" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="G29" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H29" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I29" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F29" s="37"/>
+      <x:c r="G29" s="37"/>
+      <x:c r="H29" s="35"/>
+      <x:c r="I29" s="35"/>
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="77"/>
@@ -4160,39 +3144,21 @@
       <x:c r="C30" s="62"/>
       <x:c r="D30" s="69"/>
       <x:c r="E30" s="68"/>
-      <x:c r="F30" s="44" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G30" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H30" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I30" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F30" s="44"/>
+      <x:c r="G30" s="37"/>
+      <x:c r="H30" s="35"/>
+      <x:c r="I30" s="35"/>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="77"/>
       <x:c r="B31" s="65"/>
       <x:c r="C31" s="62"/>
-      <x:c r="D31" s="83" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="E31" s="63" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="F31" s="45" t="s">
-        <x:v>191</x:v>
-      </x:c>
+      <x:c r="D31" s="83"/>
+      <x:c r="E31" s="63"/>
+      <x:c r="F31" s="45"/>
       <x:c r="G31" s="37"/>
-      <x:c r="H31" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I31" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H31" s="35"/>
+      <x:c r="I31" s="35"/>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="77"/>
@@ -4200,82 +3166,40 @@
       <x:c r="C32" s="62"/>
       <x:c r="D32" s="83"/>
       <x:c r="E32" s="63"/>
-      <x:c r="F32" s="45" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="G32" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H32" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I32" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F32" s="45"/>
+      <x:c r="G32" s="37"/>
+      <x:c r="H32" s="35"/>
+      <x:c r="I32" s="35"/>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="77"/>
       <x:c r="B33" s="65"/>
-      <x:c r="C33" s="62" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D33" s="71" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="E33" s="63" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="F33" s="37" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="G33" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H33" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I33" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C33" s="62"/>
+      <x:c r="D33" s="71"/>
+      <x:c r="E33" s="63"/>
+      <x:c r="F33" s="37"/>
+      <x:c r="G33" s="37"/>
+      <x:c r="H33" s="35"/>
+      <x:c r="I33" s="35"/>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="77"/>
       <x:c r="B34" s="65"/>
       <x:c r="C34" s="62"/>
-      <x:c r="D34" s="71" t="s">
-        <x:v>236</x:v>
-      </x:c>
+      <x:c r="D34" s="71"/>
       <x:c r="E34" s="63"/>
-      <x:c r="F34" s="39" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="G34" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H34" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I34" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F34" s="39"/>
+      <x:c r="G34" s="37"/>
+      <x:c r="H34" s="35"/>
+      <x:c r="I34" s="35"/>
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="77"/>
-      <x:c r="B35" s="62" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="C35" s="62" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D35" s="66" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="E35" s="63" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="F35" s="37" t="s">
-        <x:v>221</x:v>
-      </x:c>
+      <x:c r="B35" s="62"/>
+      <x:c r="C35" s="62"/>
+      <x:c r="D35" s="66"/>
+      <x:c r="E35" s="63"/>
+      <x:c r="F35" s="37"/>
       <x:c r="G35" s="37"/>
       <x:c r="H35" s="38"/>
       <x:c r="I35" s="38"/>
@@ -4286,9 +3210,7 @@
       <x:c r="C36" s="62"/>
       <x:c r="D36" s="66"/>
       <x:c r="E36" s="63"/>
-      <x:c r="F36" s="39" t="s">
-        <x:v>219</x:v>
-      </x:c>
+      <x:c r="F36" s="39"/>
       <x:c r="G36" s="37"/>
       <x:c r="H36" s="38"/>
       <x:c r="I36" s="38"/>
@@ -4299,41 +3221,21 @@
       <x:c r="C37" s="62"/>
       <x:c r="D37" s="66"/>
       <x:c r="E37" s="63"/>
-      <x:c r="F37" s="39" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="G37" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H37" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I37" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F37" s="39"/>
+      <x:c r="G37" s="37"/>
+      <x:c r="H37" s="35"/>
+      <x:c r="I37" s="35"/>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="77"/>
       <x:c r="B38" s="62"/>
       <x:c r="C38" s="62"/>
-      <x:c r="D38" s="66" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="E38" s="64" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F38" s="37" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="G38" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H38" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I38" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D38" s="66"/>
+      <x:c r="E38" s="64"/>
+      <x:c r="F38" s="37"/>
+      <x:c r="G38" s="37"/>
+      <x:c r="H38" s="35"/>
+      <x:c r="I38" s="35"/>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="77"/>
@@ -4341,18 +3243,10 @@
       <x:c r="C39" s="62"/>
       <x:c r="D39" s="66"/>
       <x:c r="E39" s="64"/>
-      <x:c r="F39" s="37" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="G39" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H39" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I39" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F39" s="37"/>
+      <x:c r="G39" s="37"/>
+      <x:c r="H39" s="35"/>
+      <x:c r="I39" s="35"/>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="77"/>
@@ -4360,41 +3254,21 @@
       <x:c r="C40" s="62"/>
       <x:c r="D40" s="66"/>
       <x:c r="E40" s="64"/>
-      <x:c r="F40" s="39" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="G40" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H40" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I40" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F40" s="39"/>
+      <x:c r="G40" s="37"/>
+      <x:c r="H40" s="35"/>
+      <x:c r="I40" s="35"/>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="77"/>
       <x:c r="B41" s="62"/>
       <x:c r="C41" s="62"/>
-      <x:c r="D41" s="67" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="E41" s="62" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F41" s="37" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="G41" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H41" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I41" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D41" s="67"/>
+      <x:c r="E41" s="62"/>
+      <x:c r="F41" s="37"/>
+      <x:c r="G41" s="37"/>
+      <x:c r="H41" s="35"/>
+      <x:c r="I41" s="35"/>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="77"/>
@@ -4402,37 +3276,21 @@
       <x:c r="C42" s="62"/>
       <x:c r="D42" s="67"/>
       <x:c r="E42" s="62"/>
-      <x:c r="F42" s="37" t="s">
-        <x:v>207</x:v>
-      </x:c>
+      <x:c r="F42" s="37"/>
       <x:c r="G42" s="37"/>
-      <x:c r="H42" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I42" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H42" s="35"/>
+      <x:c r="I42" s="35"/>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="77"/>
       <x:c r="B43" s="62"/>
       <x:c r="C43" s="62"/>
-      <x:c r="D43" s="67" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E43" s="65" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F43" s="37" t="s">
-        <x:v>249</x:v>
-      </x:c>
+      <x:c r="D43" s="67"/>
+      <x:c r="E43" s="65"/>
+      <x:c r="F43" s="37"/>
       <x:c r="G43" s="37"/>
-      <x:c r="H43" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I43" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H43" s="35"/>
+      <x:c r="I43" s="35"/>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="77"/>
@@ -4440,18 +3298,10 @@
       <x:c r="C44" s="62"/>
       <x:c r="D44" s="67"/>
       <x:c r="E44" s="65"/>
-      <x:c r="F44" s="37" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G44" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H44" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I44" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F44" s="37"/>
+      <x:c r="G44" s="37"/>
+      <x:c r="H44" s="35"/>
+      <x:c r="I44" s="35"/>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="77"/>
@@ -4459,24 +3309,14 @@
       <x:c r="C45" s="62"/>
       <x:c r="D45" s="67"/>
       <x:c r="E45" s="65"/>
-      <x:c r="F45" s="39" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="G45" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H45" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I45" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="F45" s="39"/>
+      <x:c r="G45" s="37"/>
+      <x:c r="H45" s="35"/>
+      <x:c r="I45" s="35"/>
     </x:row>
     <x:row r="46" spans="1:9" ht="26.25" customHeight="1">
       <x:c r="A46" s="26"/>
-      <x:c r="B46" s="68" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="B46" s="68"/>
       <x:c r="C46" s="68"/>
       <x:c r="D46" s="68"/>
       <x:c r="E46" s="68"/>
@@ -4486,175 +3326,79 @@
       <x:c r="I46" s="68"/>
     </x:row>
     <x:row r="47" spans="1:9">
-      <x:c r="A47" s="77" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B47" s="68" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C47" s="34" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D47" s="32" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="E47" s="35" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F47" s="42" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G47" s="35" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H47" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I47" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="A47" s="77"/>
+      <x:c r="B47" s="68"/>
+      <x:c r="C47" s="34"/>
+      <x:c r="D47" s="32"/>
+      <x:c r="E47" s="35"/>
+      <x:c r="F47" s="42"/>
+      <x:c r="G47" s="35"/>
+      <x:c r="H47" s="35"/>
+      <x:c r="I47" s="35"/>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="77"/>
       <x:c r="B48" s="68"/>
-      <x:c r="C48" s="35" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D48" s="32" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="E48" s="37" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="F48" s="39" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="G48" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H48" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I48" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C48" s="35"/>
+      <x:c r="D48" s="32"/>
+      <x:c r="E48" s="37"/>
+      <x:c r="F48" s="39"/>
+      <x:c r="G48" s="37"/>
+      <x:c r="H48" s="35"/>
+      <x:c r="I48" s="35"/>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="77"/>
       <x:c r="B49" s="68"/>
-      <x:c r="C49" s="68" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D49" s="83" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="E49" s="37" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F49" s="39" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="G49" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H49" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I49" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C49" s="68"/>
+      <x:c r="D49" s="83"/>
+      <x:c r="E49" s="37"/>
+      <x:c r="F49" s="39"/>
+      <x:c r="G49" s="37"/>
+      <x:c r="H49" s="35"/>
+      <x:c r="I49" s="35"/>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="77"/>
       <x:c r="B50" s="68"/>
       <x:c r="C50" s="68"/>
-      <x:c r="D50" s="83" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="E50" s="37" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="F50" s="39" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="G50" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H50" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I50" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="D50" s="83"/>
+      <x:c r="E50" s="37"/>
+      <x:c r="F50" s="39"/>
+      <x:c r="G50" s="37"/>
+      <x:c r="H50" s="35"/>
+      <x:c r="I50" s="35"/>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="77"/>
-      <x:c r="B51" s="68" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="C51" s="68" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D51" s="68" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E51" s="37" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F51" s="39" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G51" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H51" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I51" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="B51" s="68"/>
+      <x:c r="C51" s="68"/>
+      <x:c r="D51" s="68"/>
+      <x:c r="E51" s="37"/>
+      <x:c r="F51" s="39"/>
+      <x:c r="G51" s="37"/>
+      <x:c r="H51" s="35"/>
+      <x:c r="I51" s="35"/>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="77"/>
       <x:c r="B52" s="68"/>
       <x:c r="C52" s="68"/>
       <x:c r="D52" s="68"/>
-      <x:c r="E52" s="37" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F52" s="39" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="G52" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H52" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I52" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E52" s="37"/>
+      <x:c r="F52" s="39"/>
+      <x:c r="G52" s="37"/>
+      <x:c r="H52" s="35"/>
+      <x:c r="I52" s="35"/>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="77"/>
-      <x:c r="B53" s="68" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C53" s="68" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D53" s="33" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="E53" s="35" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F53" s="39" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G53" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="B53" s="68"/>
+      <x:c r="C53" s="68"/>
+      <x:c r="D53" s="33"/>
+      <x:c r="E53" s="35"/>
+      <x:c r="F53" s="39"/>
+      <x:c r="G53" s="37"/>
       <x:c r="H53" s="35"/>
       <x:c r="I53" s="35"/>
     </x:row>
@@ -4662,18 +3406,10 @@
       <x:c r="A54" s="77"/>
       <x:c r="B54" s="68"/>
       <x:c r="C54" s="68"/>
-      <x:c r="D54" s="33" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="E54" s="35" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="F54" s="39" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="G54" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D54" s="33"/>
+      <x:c r="E54" s="35"/>
+      <x:c r="F54" s="39"/>
+      <x:c r="G54" s="37"/>
       <x:c r="H54" s="35"/>
       <x:c r="I54" s="35"/>
     </x:row>
@@ -4681,18 +3417,10 @@
       <x:c r="A55" s="77"/>
       <x:c r="B55" s="68"/>
       <x:c r="C55" s="68"/>
-      <x:c r="D55" s="33" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="E55" s="39" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F55" s="39" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="G55" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D55" s="33"/>
+      <x:c r="E55" s="39"/>
+      <x:c r="F55" s="39"/>
+      <x:c r="G55" s="37"/>
       <x:c r="H55" s="35"/>
       <x:c r="I55" s="35"/>
     </x:row>
@@ -4700,18 +3428,10 @@
       <x:c r="A56" s="77"/>
       <x:c r="B56" s="68"/>
       <x:c r="C56" s="68"/>
-      <x:c r="D56" s="33" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="E56" s="35" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="F56" s="35" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="G56" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D56" s="33"/>
+      <x:c r="E56" s="35"/>
+      <x:c r="F56" s="35"/>
+      <x:c r="G56" s="37"/>
       <x:c r="H56" s="35"/>
       <x:c r="I56" s="35"/>
     </x:row>
@@ -4719,18 +3439,10 @@
       <x:c r="A57" s="77"/>
       <x:c r="B57" s="68"/>
       <x:c r="C57" s="68"/>
-      <x:c r="D57" s="33" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="E57" s="35" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="F57" s="39" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G57" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D57" s="33"/>
+      <x:c r="E57" s="35"/>
+      <x:c r="F57" s="39"/>
+      <x:c r="G57" s="37"/>
       <x:c r="H57" s="35"/>
       <x:c r="I57" s="35"/>
     </x:row>
@@ -4738,18 +3450,10 @@
       <x:c r="A58" s="77"/>
       <x:c r="B58" s="68"/>
       <x:c r="C58" s="68"/>
-      <x:c r="D58" s="33" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="E58" s="35" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="F58" s="39" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="G58" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D58" s="33"/>
+      <x:c r="E58" s="35"/>
+      <x:c r="F58" s="39"/>
+      <x:c r="G58" s="37"/>
       <x:c r="H58" s="35"/>
       <x:c r="I58" s="35"/>
     </x:row>
@@ -4757,18 +3461,10 @@
       <x:c r="A59" s="77"/>
       <x:c r="B59" s="68"/>
       <x:c r="C59" s="68"/>
-      <x:c r="D59" s="86" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="E59" s="68" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="F59" s="39" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="G59" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D59" s="86"/>
+      <x:c r="E59" s="68"/>
+      <x:c r="F59" s="39"/>
+      <x:c r="G59" s="37"/>
       <x:c r="H59" s="35"/>
       <x:c r="I59" s="35"/>
     </x:row>
@@ -4778,12 +3474,8 @@
       <x:c r="C60" s="68"/>
       <x:c r="D60" s="86"/>
       <x:c r="E60" s="68"/>
-      <x:c r="F60" s="39" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="G60" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="F60" s="39"/>
+      <x:c r="G60" s="37"/>
       <x:c r="H60" s="35"/>
       <x:c r="I60" s="35"/>
     </x:row>
@@ -4791,18 +3483,10 @@
       <x:c r="A61" s="77"/>
       <x:c r="B61" s="68"/>
       <x:c r="C61" s="68"/>
-      <x:c r="D61" s="83" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="E61" s="65" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F61" s="35" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="G61" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D61" s="83"/>
+      <x:c r="E61" s="65"/>
+      <x:c r="F61" s="35"/>
+      <x:c r="G61" s="37"/>
       <x:c r="H61" s="35"/>
       <x:c r="I61" s="35"/>
     </x:row>
@@ -4812,34 +3496,20 @@
       <x:c r="C62" s="68"/>
       <x:c r="D62" s="83"/>
       <x:c r="E62" s="65"/>
-      <x:c r="F62" s="39" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G62" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="F62" s="39"/>
+      <x:c r="G62" s="37"/>
       <x:c r="H62" s="35"/>
       <x:c r="I62" s="35"/>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="77"/>
       <x:c r="B63" s="68"/>
-      <x:c r="C63" s="78" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D63" s="83" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="E63" s="68" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F63" s="39" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="C63" s="78"/>
+      <x:c r="D63" s="83"/>
+      <x:c r="E63" s="68"/>
+      <x:c r="F63" s="39"/>
       <x:c r="G63" s="37"/>
-      <x:c r="H63" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H63" s="35"/>
       <x:c r="I63" s="35"/>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -4847,35 +3517,21 @@
       <x:c r="B64" s="68"/>
       <x:c r="C64" s="78"/>
       <x:c r="D64" s="83"/>
-      <x:c r="E64" s="68" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F64" s="39" t="s">
-        <x:v>195</x:v>
-      </x:c>
+      <x:c r="E64" s="68"/>
+      <x:c r="F64" s="39"/>
       <x:c r="G64" s="37"/>
-      <x:c r="H64" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H64" s="35"/>
       <x:c r="I64" s="35"/>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="77"/>
       <x:c r="B65" s="68"/>
       <x:c r="C65" s="78"/>
-      <x:c r="D65" s="68" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="E65" s="37" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F65" s="39" t="s">
-        <x:v>216</x:v>
-      </x:c>
+      <x:c r="D65" s="68"/>
+      <x:c r="E65" s="37"/>
+      <x:c r="F65" s="39"/>
       <x:c r="G65" s="37"/>
-      <x:c r="H65" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H65" s="35"/>
       <x:c r="I65" s="35"/>
     </x:row>
     <x:row r="66" spans="1:9">
@@ -4883,12 +3539,8 @@
       <x:c r="B66" s="68"/>
       <x:c r="C66" s="78"/>
       <x:c r="D66" s="68"/>
-      <x:c r="E66" s="37" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F66" s="39" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="E66" s="37"/>
+      <x:c r="F66" s="39"/>
       <x:c r="G66" s="37"/>
       <x:c r="H66" s="35"/>
       <x:c r="I66" s="35"/>
@@ -4898,15 +3550,9 @@
       <x:c r="B67" s="68"/>
       <x:c r="C67" s="78"/>
       <x:c r="D67" s="68"/>
-      <x:c r="E67" s="37" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F67" s="39" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="G67" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="E67" s="37"/>
+      <x:c r="F67" s="39"/>
+      <x:c r="G67" s="37"/>
       <x:c r="H67" s="35"/>
       <x:c r="I67" s="35"/>
     </x:row>
@@ -4915,61 +3561,31 @@
       <x:c r="B68" s="68"/>
       <x:c r="C68" s="78"/>
       <x:c r="D68" s="68"/>
-      <x:c r="E68" s="37" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="F68" s="39" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="G68" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="E68" s="37"/>
+      <x:c r="F68" s="39"/>
+      <x:c r="G68" s="37"/>
       <x:c r="H68" s="35"/>
       <x:c r="I68" s="35"/>
     </x:row>
     <x:row r="69" spans="1:9">
       <x:c r="A69" s="77"/>
       <x:c r="B69" s="68"/>
-      <x:c r="C69" s="35" t="s">
-        <x:v>154</x:v>
-      </x:c>
+      <x:c r="C69" s="35"/>
       <x:c r="D69" s="68"/>
-      <x:c r="E69" s="35" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="F69" s="39" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="G69" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H69" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I69" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E69" s="35"/>
+      <x:c r="F69" s="39"/>
+      <x:c r="G69" s="37"/>
+      <x:c r="H69" s="35"/>
+      <x:c r="I69" s="35"/>
     </x:row>
     <x:row r="70" spans="1:9">
       <x:c r="A70" s="77"/>
-      <x:c r="B70" s="85" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C70" s="78" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D70" s="68" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E70" s="40" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F70" s="37" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G70" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="B70" s="85"/>
+      <x:c r="C70" s="78"/>
+      <x:c r="D70" s="68"/>
+      <x:c r="E70" s="40"/>
+      <x:c r="F70" s="37"/>
+      <x:c r="G70" s="37"/>
       <x:c r="H70" s="35"/>
       <x:c r="I70" s="35"/>
     </x:row>
@@ -4978,12 +3594,8 @@
       <x:c r="B71" s="85"/>
       <x:c r="C71" s="78"/>
       <x:c r="D71" s="68"/>
-      <x:c r="E71" s="40" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F71" s="37" t="s">
-        <x:v>248</x:v>
-      </x:c>
+      <x:c r="E71" s="40"/>
+      <x:c r="F71" s="37"/>
       <x:c r="G71" s="37"/>
       <x:c r="H71" s="35"/>
       <x:c r="I71" s="35"/>
@@ -4993,15 +3605,9 @@
       <x:c r="B72" s="85"/>
       <x:c r="C72" s="78"/>
       <x:c r="D72" s="68"/>
-      <x:c r="E72" s="40" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F72" s="37" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="G72" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="E72" s="40"/>
+      <x:c r="F72" s="37"/>
+      <x:c r="G72" s="37"/>
       <x:c r="H72" s="35"/>
       <x:c r="I72" s="35"/>
     </x:row>
@@ -5010,15 +3616,9 @@
       <x:c r="B73" s="85"/>
       <x:c r="C73" s="78"/>
       <x:c r="D73" s="68"/>
-      <x:c r="E73" s="40" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="F73" s="37" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="G73" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="E73" s="40"/>
+      <x:c r="F73" s="37"/>
+      <x:c r="G73" s="37"/>
       <x:c r="H73" s="35"/>
       <x:c r="I73" s="35"/>
     </x:row>
@@ -5027,12 +3627,8 @@
       <x:c r="B74" s="85"/>
       <x:c r="C74" s="78"/>
       <x:c r="D74" s="68"/>
-      <x:c r="E74" s="40" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F74" s="37" t="s">
-        <x:v>217</x:v>
-      </x:c>
+      <x:c r="E74" s="40"/>
+      <x:c r="F74" s="37"/>
       <x:c r="G74" s="37"/>
       <x:c r="H74" s="35"/>
       <x:c r="I74" s="35"/>
@@ -5040,21 +3636,11 @@
     <x:row r="75" spans="1:9">
       <x:c r="A75" s="77"/>
       <x:c r="B75" s="85"/>
-      <x:c r="C75" s="68" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D75" s="68" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="E75" s="40" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F75" s="37" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G75" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="C75" s="68"/>
+      <x:c r="D75" s="68"/>
+      <x:c r="E75" s="40"/>
+      <x:c r="F75" s="37"/>
+      <x:c r="G75" s="37"/>
       <x:c r="H75" s="35"/>
       <x:c r="I75" s="35"/>
     </x:row>
@@ -5063,121 +3649,63 @@
       <x:c r="B76" s="85"/>
       <x:c r="C76" s="68"/>
       <x:c r="D76" s="68"/>
-      <x:c r="E76" s="40" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="F76" s="37" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="G76" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="E76" s="40"/>
+      <x:c r="F76" s="37"/>
+      <x:c r="G76" s="37"/>
       <x:c r="H76" s="35"/>
       <x:c r="I76" s="35"/>
     </x:row>
     <x:row r="77" spans="1:9">
       <x:c r="A77" s="77"/>
       <x:c r="B77" s="85"/>
-      <x:c r="C77" s="65" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D77" s="76" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="E77" s="35" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F77" s="45" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G77" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H77" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I77" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C77" s="65"/>
+      <x:c r="D77" s="76"/>
+      <x:c r="E77" s="35"/>
+      <x:c r="F77" s="45"/>
+      <x:c r="G77" s="37"/>
+      <x:c r="H77" s="35"/>
+      <x:c r="I77" s="35"/>
     </x:row>
     <x:row r="78" spans="1:9">
       <x:c r="A78" s="77"/>
       <x:c r="B78" s="85"/>
       <x:c r="C78" s="65"/>
       <x:c r="D78" s="76"/>
-      <x:c r="E78" s="35" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="F78" s="45" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="E78" s="35"/>
+      <x:c r="F78" s="45"/>
       <x:c r="G78" s="37"/>
-      <x:c r="H78" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I78" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="H78" s="35"/>
+      <x:c r="I78" s="35"/>
     </x:row>
     <x:row r="79" spans="1:9">
       <x:c r="A79" s="77"/>
       <x:c r="B79" s="85"/>
       <x:c r="C79" s="65"/>
       <x:c r="D79" s="76"/>
-      <x:c r="E79" s="35" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F79" s="45" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G79" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H79" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I79" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E79" s="35"/>
+      <x:c r="F79" s="45"/>
+      <x:c r="G79" s="37"/>
+      <x:c r="H79" s="35"/>
+      <x:c r="I79" s="35"/>
     </x:row>
     <x:row r="80" spans="1:9">
       <x:c r="A80" s="77"/>
-      <x:c r="B80" s="65" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C80" s="76" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D80" s="76" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="E80" s="41" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="F80" s="37" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="G80" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H80" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I80" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="B80" s="65"/>
+      <x:c r="C80" s="76"/>
+      <x:c r="D80" s="76"/>
+      <x:c r="E80" s="41"/>
+      <x:c r="F80" s="37"/>
+      <x:c r="G80" s="37"/>
+      <x:c r="H80" s="35"/>
+      <x:c r="I80" s="35"/>
     </x:row>
     <x:row r="81" spans="1:9">
       <x:c r="A81" s="77"/>
       <x:c r="B81" s="65"/>
       <x:c r="C81" s="76"/>
       <x:c r="D81" s="76"/>
-      <x:c r="E81" s="41" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F81" s="37" t="s">
-        <x:v>193</x:v>
-      </x:c>
+      <x:c r="E81" s="41"/>
+      <x:c r="F81" s="37"/>
       <x:c r="G81" s="37"/>
       <x:c r="H81" s="35"/>
       <x:c r="I81" s="35"/>
@@ -5187,12 +3715,8 @@
       <x:c r="B82" s="65"/>
       <x:c r="C82" s="76"/>
       <x:c r="D82" s="76"/>
-      <x:c r="E82" s="41" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F82" s="37" t="s">
-        <x:v>213</x:v>
-      </x:c>
+      <x:c r="E82" s="41"/>
+      <x:c r="F82" s="37"/>
       <x:c r="G82" s="37"/>
       <x:c r="H82" s="35"/>
       <x:c r="I82" s="35"/>
@@ -5202,12 +3726,8 @@
       <x:c r="B83" s="65"/>
       <x:c r="C83" s="76"/>
       <x:c r="D83" s="76"/>
-      <x:c r="E83" s="41" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="F83" s="37" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="E83" s="41"/>
+      <x:c r="F83" s="37"/>
       <x:c r="G83" s="37"/>
       <x:c r="H83" s="35"/>
       <x:c r="I83" s="35"/>
@@ -5215,60 +3735,32 @@
     <x:row r="84" spans="1:9">
       <x:c r="A84" s="77"/>
       <x:c r="B84" s="65"/>
-      <x:c r="C84" s="65" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D84" s="76" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="E84" s="42" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F84" s="37" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G84" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H84" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I84" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="C84" s="65"/>
+      <x:c r="D84" s="76"/>
+      <x:c r="E84" s="42"/>
+      <x:c r="F84" s="37"/>
+      <x:c r="G84" s="37"/>
+      <x:c r="H84" s="35"/>
+      <x:c r="I84" s="35"/>
     </x:row>
     <x:row r="85" spans="1:9">
       <x:c r="A85" s="77"/>
       <x:c r="B85" s="65"/>
       <x:c r="C85" s="65"/>
       <x:c r="D85" s="76"/>
-      <x:c r="E85" s="42" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F85" s="39" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G85" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H85" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I85" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E85" s="42"/>
+      <x:c r="F85" s="39"/>
+      <x:c r="G85" s="37"/>
+      <x:c r="H85" s="35"/>
+      <x:c r="I85" s="35"/>
     </x:row>
     <x:row r="86" spans="1:9">
       <x:c r="A86" s="77"/>
       <x:c r="B86" s="65"/>
       <x:c r="C86" s="65"/>
       <x:c r="D86" s="76"/>
-      <x:c r="E86" s="42" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="F86" s="45" t="s">
-        <x:v>215</x:v>
-      </x:c>
+      <x:c r="E86" s="42"/>
+      <x:c r="F86" s="45"/>
       <x:c r="G86" s="37"/>
       <x:c r="H86" s="35"/>
       <x:c r="I86" s="35"/>
@@ -5278,37 +3770,19 @@
       <x:c r="B87" s="65"/>
       <x:c r="C87" s="65"/>
       <x:c r="D87" s="76"/>
-      <x:c r="E87" s="42" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="F87" s="45" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="G87" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H87" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I87" s="35" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="E87" s="42"/>
+      <x:c r="F87" s="45"/>
+      <x:c r="G87" s="37"/>
+      <x:c r="H87" s="35"/>
+      <x:c r="I87" s="35"/>
     </x:row>
     <x:row r="88" spans="1:9">
       <x:c r="A88" s="77"/>
       <x:c r="B88" s="65"/>
-      <x:c r="C88" s="65" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="D88" s="76" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="E88" s="42" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F88" s="45" t="s">
-        <x:v>214</x:v>
-      </x:c>
+      <x:c r="C88" s="65"/>
+      <x:c r="D88" s="76"/>
+      <x:c r="E88" s="42"/>
+      <x:c r="F88" s="45"/>
       <x:c r="G88" s="37"/>
       <x:c r="H88" s="35"/>
       <x:c r="I88" s="35"/>
@@ -5318,12 +3792,8 @@
       <x:c r="B89" s="65"/>
       <x:c r="C89" s="65"/>
       <x:c r="D89" s="76"/>
-      <x:c r="E89" s="42" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="F89" s="45" t="s">
-        <x:v>188</x:v>
-      </x:c>
+      <x:c r="E89" s="42"/>
+      <x:c r="F89" s="45"/>
       <x:c r="G89" s="37"/>
       <x:c r="H89" s="35"/>
       <x:c r="I89" s="35"/>
@@ -5333,12 +3803,8 @@
       <x:c r="B90" s="65"/>
       <x:c r="C90" s="65"/>
       <x:c r="D90" s="76"/>
-      <x:c r="E90" s="42" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F90" s="45" t="s">
-        <x:v>210</x:v>
-      </x:c>
+      <x:c r="E90" s="42"/>
+      <x:c r="F90" s="45"/>
       <x:c r="G90" s="37"/>
       <x:c r="H90" s="35"/>
       <x:c r="I90" s="35"/>
@@ -5346,18 +3812,10 @@
     <x:row r="91" spans="1:9">
       <x:c r="A91" s="77"/>
       <x:c r="B91" s="65"/>
-      <x:c r="C91" s="65" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D91" s="76" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="E91" s="42" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F91" s="45" t="s">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="C91" s="65"/>
+      <x:c r="D91" s="76"/>
+      <x:c r="E91" s="42"/>
+      <x:c r="F91" s="45"/>
       <x:c r="G91" s="37"/>
       <x:c r="H91" s="35"/>
       <x:c r="I91" s="35"/>
@@ -5367,12 +3825,8 @@
       <x:c r="B92" s="65"/>
       <x:c r="C92" s="65"/>
       <x:c r="D92" s="76"/>
-      <x:c r="E92" s="42" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="F92" s="45" t="s">
-        <x:v>1</x:v>
-      </x:c>
+      <x:c r="E92" s="42"/>
+      <x:c r="F92" s="45"/>
       <x:c r="G92" s="37"/>
       <x:c r="H92" s="35"/>
       <x:c r="I92" s="35"/>
@@ -5380,18 +3834,10 @@
     <x:row r="93" spans="1:9">
       <x:c r="A93" s="77"/>
       <x:c r="B93" s="65"/>
-      <x:c r="C93" s="76" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D93" s="76" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="E93" s="37" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F93" s="37" t="s">
-        <x:v>87</x:v>
-      </x:c>
+      <x:c r="C93" s="76"/>
+      <x:c r="D93" s="76"/>
+      <x:c r="E93" s="37"/>
+      <x:c r="F93" s="37"/>
       <x:c r="G93" s="37"/>
       <x:c r="H93" s="35"/>
       <x:c r="I93" s="35"/>
@@ -5401,15 +3847,9 @@
       <x:c r="B94" s="65"/>
       <x:c r="C94" s="76"/>
       <x:c r="D94" s="76"/>
-      <x:c r="E94" s="35" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="F94" s="37" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G94" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="E94" s="35"/>
+      <x:c r="F94" s="37"/>
+      <x:c r="G94" s="37"/>
       <x:c r="H94" s="35"/>
       <x:c r="I94" s="35"/>
     </x:row>
@@ -5418,58 +3858,30 @@
       <x:c r="B95" s="65"/>
       <x:c r="C95" s="76"/>
       <x:c r="D95" s="76"/>
-      <x:c r="E95" s="35" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="F95" s="37" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="G95" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="E95" s="35"/>
+      <x:c r="F95" s="37"/>
+      <x:c r="G95" s="37"/>
       <x:c r="H95" s="35"/>
       <x:c r="I95" s="35"/>
     </x:row>
     <x:row r="96" spans="1:9">
-      <x:c r="A96" s="77" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="B96" s="37" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="C96" s="37" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D96" s="68" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E96" s="37" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F96" s="37" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="G96" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="A96" s="77"/>
+      <x:c r="B96" s="37"/>
+      <x:c r="C96" s="37"/>
+      <x:c r="D96" s="68"/>
+      <x:c r="E96" s="37"/>
+      <x:c r="F96" s="37"/>
+      <x:c r="G96" s="37"/>
       <x:c r="H96" s="38"/>
       <x:c r="I96" s="38"/>
     </x:row>
     <x:row r="97" spans="1:9">
       <x:c r="A97" s="77"/>
-      <x:c r="B97" s="68" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C97" s="64" t="s">
-        <x:v>68</x:v>
-      </x:c>
+      <x:c r="B97" s="68"/>
+      <x:c r="C97" s="64"/>
       <x:c r="D97" s="68"/>
-      <x:c r="E97" s="64" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="F97" s="37" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="E97" s="64"/>
+      <x:c r="F97" s="37"/>
       <x:c r="G97" s="43"/>
       <x:c r="H97" s="38"/>
       <x:c r="I97" s="38"/>
@@ -5480,9 +3892,7 @@
       <x:c r="C98" s="64"/>
       <x:c r="D98" s="68"/>
       <x:c r="E98" s="64"/>
-      <x:c r="F98" s="37" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="F98" s="37"/>
       <x:c r="G98" s="43"/>
       <x:c r="H98" s="38"/>
       <x:c r="I98" s="38"/>
@@ -5493,9 +3903,7 @@
       <x:c r="C99" s="64"/>
       <x:c r="D99" s="68"/>
       <x:c r="E99" s="64"/>
-      <x:c r="F99" s="39" t="s">
-        <x:v>41</x:v>
-      </x:c>
+      <x:c r="F99" s="39"/>
       <x:c r="G99" s="43"/>
       <x:c r="H99" s="38"/>
       <x:c r="I99" s="38"/>
@@ -5503,18 +3911,10 @@
     <x:row r="100" spans="1:9">
       <x:c r="A100" s="77"/>
       <x:c r="B100" s="68"/>
-      <x:c r="C100" s="46" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D100" s="34" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E100" s="46" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F100" s="37" t="s">
-        <x:v>42</x:v>
-      </x:c>
+      <x:c r="C100" s="46"/>
+      <x:c r="D100" s="34"/>
+      <x:c r="E100" s="46"/>
+      <x:c r="F100" s="37"/>
       <x:c r="G100" s="43"/>
       <x:c r="H100" s="38"/>
       <x:c r="I100" s="38"/>
@@ -5522,18 +3922,10 @@
     <x:row r="101" spans="1:9">
       <x:c r="A101" s="77"/>
       <x:c r="B101" s="68"/>
-      <x:c r="C101" s="65" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D101" s="87" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E101" s="65" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="F101" s="37" t="s">
-        <x:v>88</x:v>
-      </x:c>
+      <x:c r="C101" s="65"/>
+      <x:c r="D101" s="87"/>
+      <x:c r="E101" s="65"/>
+      <x:c r="F101" s="37"/>
       <x:c r="G101" s="43"/>
       <x:c r="H101" s="38"/>
       <x:c r="I101" s="38"/>
@@ -5544,12 +3936,8 @@
       <x:c r="C102" s="65"/>
       <x:c r="D102" s="68"/>
       <x:c r="E102" s="65"/>
-      <x:c r="F102" s="37" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="G102" s="37" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="F102" s="37"/>
+      <x:c r="G102" s="37"/>
       <x:c r="H102" s="38"/>
       <x:c r="I102" s="38"/>
     </x:row>
